--- a/src/main/resources/database/shops.xlsx
+++ b/src/main/resources/database/shops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\clothing-store\src\main\resources\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DFA63D-934C-428D-A9CE-75D3016F8DF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BD5E54-FD8D-4259-B9AD-9E1DF4E62146}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Inspiration</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>#000000</t>
+  </si>
+  <si>
+    <t>#990000</t>
   </si>
 </sst>
 </file>
@@ -393,7 +396,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,7 +433,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>0</v>

--- a/src/main/resources/database/shops.xlsx
+++ b/src/main/resources/database/shops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\clothing-store\src\main\resources\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BD5E54-FD8D-4259-B9AD-9E1DF4E62146}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9297496-BC2A-4BAB-9772-78F66C6DFBD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2436" yWindow="6912" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Inspiration</t>
   </si>
@@ -66,10 +66,16 @@
     <t>Everything for you</t>
   </si>
   <si>
-    <t>#000000</t>
-  </si>
-  <si>
     <t>#990000</t>
+  </si>
+  <si>
+    <t>#ffcbdb</t>
+  </si>
+  <si>
+    <t>#808080</t>
+  </si>
+  <si>
+    <t>#52442c</t>
   </si>
 </sst>
 </file>
@@ -396,7 +402,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -433,7 +439,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -467,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -484,7 +490,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -501,7 +507,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>

--- a/src/main/resources/database/shops.xlsx
+++ b/src/main/resources/database/shops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\clothing-store\src\main\resources\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9297496-BC2A-4BAB-9772-78F66C6DFBD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432AEAD2-0A02-4D0E-9485-76A96817908F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2436" yWindow="6912" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -425,7 +425,7 @@
         <v>7</v>
       </c>
       <c r="E1">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -442,7 +442,7 @@
         <v>13</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
